--- a/Code/Results/Cases/Case_1_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_212/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.97514284209153</v>
+        <v>7.909905365294291</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>17.89181321565708</v>
+        <v>10.01683104075481</v>
       </c>
       <c r="E2">
-        <v>15.65269941923889</v>
+        <v>9.229275407203918</v>
       </c>
       <c r="F2">
-        <v>86.5149938354124</v>
+        <v>73.44838837831928</v>
       </c>
       <c r="G2">
-        <v>1.845042633585461</v>
+        <v>3.826188401978788</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.01462135389981</v>
+        <v>20.31797844828558</v>
       </c>
       <c r="J2">
-        <v>5.203067572187876</v>
+        <v>8.569510664404456</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>57.54132629969485</v>
+        <v>41.77842852650505</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.26564140094145</v>
+        <v>7.598058114066005</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.00077190299235</v>
+        <v>9.667082402201361</v>
       </c>
       <c r="E3">
-        <v>14.28868554685996</v>
+        <v>8.807130319796354</v>
       </c>
       <c r="F3">
-        <v>77.82730733849222</v>
+        <v>72.93098895861142</v>
       </c>
       <c r="G3">
-        <v>1.911732697187814</v>
+        <v>3.83891309599214</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.64300897972818</v>
+        <v>20.28614089080616</v>
       </c>
       <c r="J3">
-        <v>5.231497539549087</v>
+        <v>8.590131279615292</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>52.41314735864666</v>
+        <v>40.74944359620653</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.810689026674861</v>
+        <v>7.399663309939654</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.90777733246249</v>
+        <v>9.452097644530205</v>
       </c>
       <c r="E4">
-        <v>13.4864720114107</v>
+        <v>8.536992819965842</v>
       </c>
       <c r="F4">
-        <v>73.02867569916938</v>
+        <v>72.65320759133024</v>
       </c>
       <c r="G4">
-        <v>1.948679689135277</v>
+        <v>3.847058570305241</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.43467835061659</v>
+        <v>20.27437417931135</v>
       </c>
       <c r="J4">
-        <v>5.250881502569814</v>
+        <v>8.60379077190299</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>49.3439224061487</v>
+        <v>40.11508236435017</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.620243121518623</v>
+        <v>7.317170824795721</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.47081357895752</v>
+        <v>9.364570211672708</v>
       </c>
       <c r="E5">
-        <v>13.163040462424</v>
+        <v>8.424233855854981</v>
       </c>
       <c r="F5">
-        <v>71.24940677501991</v>
+        <v>72.54996009176428</v>
       </c>
       <c r="G5">
-        <v>1.963119792026093</v>
+        <v>3.85046245449664</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.35475110717745</v>
+        <v>20.27154272072922</v>
       </c>
       <c r="J5">
-        <v>5.259250287329841</v>
+        <v>8.609608663314674</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>48.09620029695338</v>
+        <v>39.85626642183419</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.58831077288035</v>
+        <v>7.303376668061976</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.39858979149061</v>
+        <v>9.350045485298383</v>
       </c>
       <c r="E6">
-        <v>13.10943677634273</v>
+        <v>8.40535115988191</v>
       </c>
       <c r="F6">
-        <v>70.95832119474512</v>
+        <v>72.53341405989356</v>
       </c>
       <c r="G6">
-        <v>1.965488271516386</v>
+        <v>3.851032799747114</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.34177600361408</v>
+        <v>20.27119131889746</v>
       </c>
       <c r="J6">
-        <v>5.26066804916689</v>
+        <v>8.610589926540712</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>47.88885509698309</v>
+        <v>39.81328164331502</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.808141240761593</v>
+        <v>7.398557313684842</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.90185846459629</v>
+        <v>9.450916700762845</v>
       </c>
       <c r="E7">
-        <v>13.48210116135554</v>
+        <v>8.535482838392456</v>
       </c>
       <c r="F7">
-        <v>73.00437148746094</v>
+        <v>72.65177499547242</v>
       </c>
       <c r="G7">
-        <v>1.948876552241431</v>
+        <v>3.847104132761294</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.4335804443249</v>
+        <v>20.2743280350839</v>
       </c>
       <c r="J7">
-        <v>5.25099247671454</v>
+        <v>8.603868214889976</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>49.32709930972414</v>
+        <v>40.11159267893073</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.73436705885998</v>
+        <v>7.803869831279236</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.21861629046363</v>
+        <v>9.896368437725469</v>
       </c>
       <c r="E8">
-        <v>15.17066250141906</v>
+        <v>9.086030983806735</v>
       </c>
       <c r="F8">
-        <v>83.38360864020494</v>
+        <v>73.26166320913671</v>
       </c>
       <c r="G8">
-        <v>1.869182818821133</v>
+        <v>3.830507446122104</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.88243238273832</v>
+        <v>20.3053903724683</v>
       </c>
       <c r="J8">
-        <v>5.212455382179543</v>
+        <v>8.576413741086549</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>55.74289114562637</v>
+        <v>41.42436272021644</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.41768891002349</v>
+        <v>8.540200595611285</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>23.61270940955384</v>
+        <v>10.7623446906824</v>
       </c>
       <c r="E9">
-        <v>19.59631383326226</v>
+        <v>10.07621868367634</v>
       </c>
       <c r="F9">
-        <v>114.2159110823552</v>
+        <v>74.77699230819042</v>
       </c>
       <c r="G9">
-        <v>1.622800136440105</v>
+        <v>3.800555662432168</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.86681280619137</v>
+        <v>20.42767179067203</v>
       </c>
       <c r="J9">
-        <v>5.157719153356371</v>
+        <v>8.530475247974499</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>71.50880507198704</v>
+        <v>43.96443646583738</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.41768891002349</v>
+        <v>9.041476246308873</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>23.61270940955384</v>
+        <v>11.38717643859981</v>
       </c>
       <c r="E10">
-        <v>19.59631383326226</v>
+        <v>10.74645156130895</v>
       </c>
       <c r="F10">
-        <v>114.2159110823552</v>
+        <v>76.08734563838119</v>
       </c>
       <c r="G10">
-        <v>1.622800136440105</v>
+        <v>3.780068970777322</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.86681280619137</v>
+        <v>20.55431101724097</v>
       </c>
       <c r="J10">
-        <v>5.157719153356371</v>
+        <v>8.501510533081998</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71.50880507198704</v>
+        <v>45.79235496234704</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.41768891002349</v>
+        <v>9.260231164294817</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>23.61270940955384</v>
+        <v>11.66775337647631</v>
       </c>
       <c r="E11">
-        <v>19.59631383326226</v>
+        <v>11.03854174689617</v>
       </c>
       <c r="F11">
-        <v>114.2159110823552</v>
+        <v>76.72635863002752</v>
       </c>
       <c r="G11">
-        <v>1.622800136440105</v>
+        <v>3.771064703609857</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.86681280619137</v>
+        <v>20.61974798071489</v>
       </c>
       <c r="J11">
-        <v>5.157719153356371</v>
+        <v>8.489366815113392</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>71.50880507198704</v>
+        <v>46.61234145321343</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.41768891002349</v>
+        <v>9.341688986000195</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>23.61270940955384</v>
+        <v>11.77338996532677</v>
       </c>
       <c r="E12">
-        <v>19.59631383326226</v>
+        <v>11.14728592719599</v>
       </c>
       <c r="F12">
-        <v>114.2159110823552</v>
+        <v>76.97449082590209</v>
       </c>
       <c r="G12">
-        <v>1.622800136440105</v>
+        <v>3.767699163442143</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.86681280619137</v>
+        <v>20.64563648886609</v>
       </c>
       <c r="J12">
-        <v>5.157719153356371</v>
+        <v>8.484916286268209</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>71.50880507198704</v>
+        <v>46.92094572128372</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.41768891002349</v>
+        <v>9.324207612279857</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>23.61270940955384</v>
+        <v>11.7506676771809</v>
       </c>
       <c r="E13">
-        <v>19.59631383326226</v>
+        <v>11.12394912031973</v>
       </c>
       <c r="F13">
-        <v>114.2159110823552</v>
+        <v>76.92077799568241</v>
       </c>
       <c r="G13">
-        <v>1.622800136440105</v>
+        <v>3.768422046574107</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.86681280619137</v>
+        <v>20.64001189640749</v>
       </c>
       <c r="J13">
-        <v>5.157719153356371</v>
+        <v>8.48586821035995</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>71.50880507198704</v>
+        <v>46.85457076563903</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.41768891002349</v>
+        <v>9.266960640807666</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>23.61270940955384</v>
+        <v>11.67645686976184</v>
       </c>
       <c r="E14">
-        <v>19.59631383326226</v>
+        <v>11.04752566184182</v>
       </c>
       <c r="F14">
-        <v>114.2159110823552</v>
+        <v>76.7466494931453</v>
       </c>
       <c r="G14">
-        <v>1.622800136440105</v>
+        <v>3.770786939893621</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.86681280619137</v>
+        <v>20.62185571984087</v>
       </c>
       <c r="J14">
-        <v>5.157719153356371</v>
+        <v>8.488997703097247</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>71.50880507198704</v>
+        <v>46.63777006082643</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.41768891002349</v>
+        <v>9.231714275298684</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>23.61270940955384</v>
+        <v>11.63091860525985</v>
       </c>
       <c r="E15">
-        <v>19.59631383326226</v>
+        <v>11.00047076738604</v>
       </c>
       <c r="F15">
-        <v>114.2159110823552</v>
+        <v>76.64079104489568</v>
       </c>
       <c r="G15">
-        <v>1.622800136440105</v>
+        <v>3.772241224068836</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.86681280619137</v>
+        <v>20.61087843409198</v>
       </c>
       <c r="J15">
-        <v>5.157719153356371</v>
+        <v>8.490933873231848</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>71.50880507198704</v>
+        <v>46.5047181057106</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.41768891002349</v>
+        <v>9.026989325235894</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>23.61270940955384</v>
+        <v>11.3687588304662</v>
       </c>
       <c r="E16">
-        <v>19.59631383326226</v>
+        <v>10.72710303345354</v>
       </c>
       <c r="F16">
-        <v>114.2159110823552</v>
+        <v>76.04644697081449</v>
       </c>
       <c r="G16">
-        <v>1.622800136440105</v>
+        <v>3.78066366679663</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.86681280619137</v>
+        <v>20.55019068395504</v>
       </c>
       <c r="J16">
-        <v>5.157719153356371</v>
+        <v>8.50232489241383</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>71.50880507198704</v>
+        <v>45.73851301193049</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.41768891002349</v>
+        <v>8.898986017281576</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>23.61270940955384</v>
+        <v>11.20692994446076</v>
       </c>
       <c r="E17">
-        <v>19.59631383326226</v>
+        <v>10.55610314976116</v>
       </c>
       <c r="F17">
-        <v>114.2159110823552</v>
+        <v>75.69282046264291</v>
       </c>
       <c r="G17">
-        <v>1.622800136440105</v>
+        <v>3.78591049657307</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.86681280619137</v>
+        <v>20.51495426274336</v>
       </c>
       <c r="J17">
-        <v>5.157719153356371</v>
+        <v>8.509577045208484</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>71.50880507198704</v>
+        <v>45.26533165152985</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.41768891002349</v>
+        <v>8.824490866494969</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>23.61270940955384</v>
+        <v>11.11350988120479</v>
       </c>
       <c r="E18">
-        <v>19.59631383326226</v>
+        <v>10.45654444571183</v>
       </c>
       <c r="F18">
-        <v>114.2159110823552</v>
+        <v>75.49346657833713</v>
       </c>
       <c r="G18">
-        <v>1.622800136440105</v>
+        <v>3.788958076675661</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.86681280619137</v>
+        <v>20.49542512620544</v>
       </c>
       <c r="J18">
-        <v>5.157719153356371</v>
+        <v>8.513845499111182</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>71.50880507198704</v>
+        <v>44.99209711800892</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.41768891002349</v>
+        <v>8.799120001548689</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>23.61270940955384</v>
+        <v>11.08182378479496</v>
       </c>
       <c r="E19">
-        <v>19.59631383326226</v>
+        <v>10.42262959511793</v>
       </c>
       <c r="F19">
-        <v>114.2159110823552</v>
+        <v>75.42666351954628</v>
       </c>
       <c r="G19">
-        <v>1.622800136440105</v>
+        <v>3.789995077542555</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.86681280619137</v>
+        <v>20.48894012004116</v>
       </c>
       <c r="J19">
-        <v>5.157719153356371</v>
+        <v>8.51530743302377</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>71.50880507198704</v>
+        <v>44.89940818806087</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.41768891002349</v>
+        <v>8.912702690998749</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>23.61270940955384</v>
+        <v>11.22419278723376</v>
       </c>
       <c r="E20">
-        <v>19.59631383326226</v>
+        <v>10.57443118801242</v>
       </c>
       <c r="F20">
-        <v>114.2159110823552</v>
+        <v>75.73004630701323</v>
       </c>
       <c r="G20">
-        <v>1.622800136440105</v>
+        <v>3.785348892552209</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.86681280619137</v>
+        <v>20.51862898441274</v>
       </c>
       <c r="J20">
-        <v>5.157719153356371</v>
+        <v>8.508794983726027</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>71.50880507198704</v>
+        <v>45.31581554173415</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.41768891002349</v>
+        <v>9.28381324409038</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>23.61270940955384</v>
+        <v>11.69827160749406</v>
       </c>
       <c r="E21">
-        <v>19.59631383326226</v>
+        <v>11.07002382332346</v>
       </c>
       <c r="F21">
-        <v>114.2159110823552</v>
+        <v>76.79762853293678</v>
       </c>
       <c r="G21">
-        <v>1.622800136440105</v>
+        <v>3.770091123735945</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.86681280619137</v>
+        <v>20.6271586729643</v>
       </c>
       <c r="J21">
-        <v>5.157719153356371</v>
+        <v>8.488074481088537</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>71.50880507198704</v>
+        <v>46.70150328842399</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.41768891002349</v>
+        <v>9.518295850604426</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>23.61270940955384</v>
+        <v>12.0045121851769</v>
       </c>
       <c r="E22">
-        <v>19.59631383326226</v>
+        <v>11.38305124706941</v>
       </c>
       <c r="F22">
-        <v>114.2159110823552</v>
+        <v>77.53119373605011</v>
       </c>
       <c r="G22">
-        <v>1.622800136440105</v>
+        <v>3.760376241547795</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.86681280619137</v>
+        <v>20.70454414452278</v>
       </c>
       <c r="J22">
-        <v>5.157719153356371</v>
+        <v>8.475395087513844</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>71.50880507198704</v>
+        <v>47.59591757574357</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.41768891002349</v>
+        <v>9.393898841884893</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23.61270940955384</v>
+        <v>11.84142009065855</v>
       </c>
       <c r="E23">
-        <v>19.59631383326226</v>
+        <v>11.2169831990876</v>
       </c>
       <c r="F23">
-        <v>114.2159110823552</v>
+        <v>77.13640740703737</v>
       </c>
       <c r="G23">
-        <v>1.622800136440105</v>
+        <v>3.765538137258025</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.86681280619137</v>
+        <v>20.66265732231737</v>
       </c>
       <c r="J23">
-        <v>5.157719153356371</v>
+        <v>8.482083528908618</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>71.50880507198704</v>
+        <v>47.11965347136166</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.41768891002349</v>
+        <v>8.906504196093291</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>23.61270940955384</v>
+        <v>11.21638944076128</v>
       </c>
       <c r="E24">
-        <v>19.59631383326226</v>
+        <v>10.56614896917921</v>
       </c>
       <c r="F24">
-        <v>114.2159110823552</v>
+        <v>75.71320419576453</v>
       </c>
       <c r="G24">
-        <v>1.622800136440105</v>
+        <v>3.785602696749953</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.86681280619137</v>
+        <v>20.51696537159708</v>
       </c>
       <c r="J24">
-        <v>5.157719153356371</v>
+        <v>8.509148245031534</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>71.50880507198704</v>
+        <v>45.29299548207846</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.41768891002349</v>
+        <v>8.34772148186965</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>23.61270940955384</v>
+        <v>10.52962995906025</v>
       </c>
       <c r="E25">
-        <v>19.59631383326226</v>
+        <v>9.818242802748349</v>
       </c>
       <c r="F25">
-        <v>114.2159110823552</v>
+        <v>74.33254656702114</v>
       </c>
       <c r="G25">
-        <v>1.622800136440105</v>
+        <v>3.808387033672609</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.86681280619137</v>
+        <v>20.38807804193976</v>
       </c>
       <c r="J25">
-        <v>5.157719153356371</v>
+        <v>8.542060180712912</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>71.50880507198704</v>
+        <v>43.28281804132899</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_212/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.909905365294291</v>
+        <v>10.97514284209156</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.01683104075481</v>
+        <v>17.89181321565716</v>
       </c>
       <c r="E2">
-        <v>9.229275407203918</v>
+        <v>15.65269941923883</v>
       </c>
       <c r="F2">
-        <v>73.44838837831928</v>
+        <v>86.51499383541265</v>
       </c>
       <c r="G2">
-        <v>3.826188401978788</v>
+        <v>1.845042633585584</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.31797844828558</v>
+        <v>18.01462135389978</v>
       </c>
       <c r="J2">
-        <v>8.569510664404456</v>
+        <v>5.203067572187831</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>41.77842852650505</v>
+        <v>57.54132629969503</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.598058114066005</v>
+        <v>10.26564140094143</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.667082402201361</v>
+        <v>16.00077190299245</v>
       </c>
       <c r="E3">
-        <v>8.807130319796354</v>
+        <v>14.2886855468601</v>
       </c>
       <c r="F3">
-        <v>72.93098895861142</v>
+        <v>77.82730733849243</v>
       </c>
       <c r="G3">
-        <v>3.83891309599214</v>
+        <v>1.91173269718781</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.28614089080616</v>
+        <v>17.64300897972813</v>
       </c>
       <c r="J3">
-        <v>8.590131279615292</v>
+        <v>5.231497539549183</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>40.74944359620653</v>
+        <v>52.41314735864677</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.399663309939654</v>
+        <v>9.810689026674838</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.452097644530205</v>
+        <v>14.90777733246244</v>
       </c>
       <c r="E4">
-        <v>8.536992819965842</v>
+        <v>13.48647201141061</v>
       </c>
       <c r="F4">
-        <v>72.65320759133024</v>
+        <v>73.02867569916917</v>
       </c>
       <c r="G4">
-        <v>3.847058570305241</v>
+        <v>1.948679689135282</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.27437417931135</v>
+        <v>17.43467835061669</v>
       </c>
       <c r="J4">
-        <v>8.60379077190299</v>
+        <v>5.250881502569751</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>40.11508236435017</v>
+        <v>49.34392240614859</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.317170824795721</v>
+        <v>9.620243121518705</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.364570211672708</v>
+        <v>14.47081357895747</v>
       </c>
       <c r="E5">
-        <v>8.424233855854981</v>
+        <v>13.16304046242398</v>
       </c>
       <c r="F5">
-        <v>72.54996009176428</v>
+        <v>71.24940677501957</v>
       </c>
       <c r="G5">
-        <v>3.85046245449664</v>
+        <v>1.963119792026097</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.27154272072922</v>
+        <v>17.35475110717746</v>
       </c>
       <c r="J5">
-        <v>8.609608663314674</v>
+        <v>5.259250287329839</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>39.85626642183419</v>
+        <v>48.09620029695321</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.303376668061976</v>
+        <v>9.588310772880304</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.350045485298383</v>
+        <v>14.39858979149055</v>
       </c>
       <c r="E6">
-        <v>8.40535115988191</v>
+        <v>13.10943677634265</v>
       </c>
       <c r="F6">
-        <v>72.53341405989356</v>
+        <v>70.95832119474528</v>
       </c>
       <c r="G6">
-        <v>3.851032799747114</v>
+        <v>1.965488271516399</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.27119131889746</v>
+        <v>17.34177600361399</v>
       </c>
       <c r="J6">
-        <v>8.610589926540712</v>
+        <v>5.260668049166915</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>39.81328164331502</v>
+        <v>47.88885509698307</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.398557313684842</v>
+        <v>9.808141240761534</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.450916700762845</v>
+        <v>14.90185846459632</v>
       </c>
       <c r="E7">
-        <v>8.535482838392456</v>
+        <v>13.48210116135555</v>
       </c>
       <c r="F7">
-        <v>72.65177499547242</v>
+        <v>73.00437148746109</v>
       </c>
       <c r="G7">
-        <v>3.847104132761294</v>
+        <v>1.948876552241275</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.2743280350839</v>
+        <v>17.43358044432485</v>
       </c>
       <c r="J7">
-        <v>8.603868214889976</v>
+        <v>5.250992476714572</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40.11159267893073</v>
+        <v>49.32709930972411</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.803869831279236</v>
+        <v>10.73436705885997</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.896368437725469</v>
+        <v>17.21861629046372</v>
       </c>
       <c r="E8">
-        <v>9.086030983806735</v>
+        <v>15.17066250141906</v>
       </c>
       <c r="F8">
-        <v>73.26166320913671</v>
+        <v>83.383608640205</v>
       </c>
       <c r="G8">
-        <v>3.830507446122104</v>
+        <v>1.86918281882139</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.3053903724683</v>
+        <v>17.88243238273832</v>
       </c>
       <c r="J8">
-        <v>8.576413741086549</v>
+        <v>5.212455382179511</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>41.42436272021644</v>
+        <v>55.74289114562637</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.540200595611285</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.7623446906824</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E9">
-        <v>10.07621868367634</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F9">
-        <v>74.77699230819042</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G9">
-        <v>3.800555662432168</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.42767179067203</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J9">
-        <v>8.530475247974499</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>43.96443646583738</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.041476246308873</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.38717643859981</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E10">
-        <v>10.74645156130895</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F10">
-        <v>76.08734563838119</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G10">
-        <v>3.780068970777322</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.55431101724097</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J10">
-        <v>8.501510533081998</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>45.79235496234704</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.260231164294817</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.66775337647631</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E11">
-        <v>11.03854174689617</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F11">
-        <v>76.72635863002752</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G11">
-        <v>3.771064703609857</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.61974798071489</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J11">
-        <v>8.489366815113392</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>46.61234145321343</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.341688986000195</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.77338996532677</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E12">
-        <v>11.14728592719599</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F12">
-        <v>76.97449082590209</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G12">
-        <v>3.767699163442143</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.64563648886609</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J12">
-        <v>8.484916286268209</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>46.92094572128372</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.324207612279857</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.7506676771809</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E13">
-        <v>11.12394912031973</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F13">
-        <v>76.92077799568241</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G13">
-        <v>3.768422046574107</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.64001189640749</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J13">
-        <v>8.48586821035995</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>46.85457076563903</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.266960640807666</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.67645686976184</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E14">
-        <v>11.04752566184182</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F14">
-        <v>76.7466494931453</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G14">
-        <v>3.770786939893621</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.62185571984087</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J14">
-        <v>8.488997703097247</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>46.63777006082643</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.231714275298684</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.63091860525985</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E15">
-        <v>11.00047076738604</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F15">
-        <v>76.64079104489568</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G15">
-        <v>3.772241224068836</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.61087843409198</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J15">
-        <v>8.490933873231848</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>46.5047181057106</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.026989325235894</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.3687588304662</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E16">
-        <v>10.72710303345354</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F16">
-        <v>76.04644697081449</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G16">
-        <v>3.78066366679663</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.55019068395504</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J16">
-        <v>8.50232489241383</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>45.73851301193049</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.898986017281576</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.20692994446076</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E17">
-        <v>10.55610314976116</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F17">
-        <v>75.69282046264291</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G17">
-        <v>3.78591049657307</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.51495426274336</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J17">
-        <v>8.509577045208484</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>45.26533165152985</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.824490866494969</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.11350988120479</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E18">
-        <v>10.45654444571183</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F18">
-        <v>75.49346657833713</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G18">
-        <v>3.788958076675661</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.49542512620544</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J18">
-        <v>8.513845499111182</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>44.99209711800892</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.799120001548689</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.08182378479496</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E19">
-        <v>10.42262959511793</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F19">
-        <v>75.42666351954628</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G19">
-        <v>3.789995077542555</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.48894012004116</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J19">
-        <v>8.51530743302377</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>44.89940818806087</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.912702690998749</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.22419278723376</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E20">
-        <v>10.57443118801242</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F20">
-        <v>75.73004630701323</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G20">
-        <v>3.785348892552209</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.51862898441274</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J20">
-        <v>8.508794983726027</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>45.31581554173415</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.28381324409038</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.69827160749406</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E21">
-        <v>11.07002382332346</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F21">
-        <v>76.79762853293678</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G21">
-        <v>3.770091123735945</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.6271586729643</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J21">
-        <v>8.488074481088537</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>46.70150328842399</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.518295850604426</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.0045121851769</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E22">
-        <v>11.38305124706941</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F22">
-        <v>77.53119373605011</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G22">
-        <v>3.760376241547795</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.70454414452278</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J22">
-        <v>8.475395087513844</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>47.59591757574357</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.393898841884893</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.84142009065855</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E23">
-        <v>11.2169831990876</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F23">
-        <v>77.13640740703737</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G23">
-        <v>3.765538137258025</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.66265732231737</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J23">
-        <v>8.482083528908618</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>47.11965347136166</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.906504196093291</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.21638944076128</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E24">
-        <v>10.56614896917921</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F24">
-        <v>75.71320419576453</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G24">
-        <v>3.785602696749953</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.51696537159708</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J24">
-        <v>8.509148245031534</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>45.29299548207846</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.34772148186965</v>
+        <v>12.41768891002349</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.52962995906025</v>
+        <v>23.61270940955378</v>
       </c>
       <c r="E25">
-        <v>9.818242802748349</v>
+        <v>19.59631383326228</v>
       </c>
       <c r="F25">
-        <v>74.33254656702114</v>
+        <v>114.2159110823552</v>
       </c>
       <c r="G25">
-        <v>3.808387033672609</v>
+        <v>1.622800136439961</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.38807804193976</v>
+        <v>18.86681280619141</v>
       </c>
       <c r="J25">
-        <v>8.542060180712912</v>
+        <v>5.157719153356386</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>43.28281804132899</v>
+        <v>71.50880507198706</v>
       </c>
       <c r="N25">
         <v>0</v>
